--- a/dtpu_configurations/only_integer8/100mhz/mxu_22x22/timing.xlsx
+++ b/dtpu_configurations/only_integer8/100mhz/mxu_22x22/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>3.0483527183532715</v>
+        <v>0.13884271681308746</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.02181454934179783</v>
+        <v>0.017626788467168808</v>
       </c>
     </row>
   </sheetData>
